--- a/target/classes/Empleados.xlsx
+++ b/target/classes/Empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msuarez\IdeaProjects\SalmonttAPP-S5\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9E20EC-C6F9-4B21-8126-E94753CA0BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA1188E-D180-489F-A070-2E0B0CDF9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -623,7 +623,7 @@
     <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -711,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="N2">
-        <v>18000</v>
+        <v>2650000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>12000</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>10000</v>
+        <v>1890000</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -834,7 +834,7 @@
         <v>29</v>
       </c>
       <c r="N5">
-        <v>15000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -878,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="N6">
-        <v>20000</v>
+        <v>2890000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -919,7 +919,7 @@
         <v>60</v>
       </c>
       <c r="N7">
-        <v>10000</v>
+        <v>800000</v>
       </c>
     </row>
   </sheetData>
